--- a/WADE003-arcticpred_dada2_QAQC_12SP1_output-130trunc-ADFGnotes-50BOOTTRUE.xlsx
+++ b/WADE003-arcticpred_dada2_QAQC_12SP1_output-130trunc-ADFGnotes-50BOOTTRUE.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bd2331949789710/文档/WADE LAB/Arctic-predator-diet-microbiome/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBall\OneDrive\Documents\UW-DOCS\WADE lab\Arctic-predator-diet-microbiome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_7C167EC98F79A8D366075C52F37BD272CAC214D7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{417EB1E4-7FC3-4B35-8328-3643EF704786}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEE88B9-D0BB-459C-92E9-1D37706BF30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="464">
   <si>
     <t>rownames</t>
   </si>
@@ -1442,7 +1443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1452,6 +1453,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1468,12 +1475,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -1781,22 +1789,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.796875" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.59765625" customWidth="1"/>
+    <col min="15" max="15" width="26.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1846,7 +1856,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1893,7 +1903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1940,7 +1950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1987,7 +1997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2034,7 +2044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -2081,7 +2091,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2128,7 +2138,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2175,7 +2185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -2222,7 +2232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2269,7 +2279,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -2316,7 +2326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -2363,7 +2373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -2410,7 +2420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2457,7 +2467,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
@@ -2504,7 +2514,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -2551,7 +2561,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -2598,7 +2608,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -2642,7 +2652,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -2689,7 +2699,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2736,7 +2746,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -2783,7 +2793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2830,7 +2840,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -2877,7 +2887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -2924,7 +2934,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -2971,7 +2981,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -3018,7 +3028,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -3065,7 +3075,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -3106,7 +3116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -3153,7 +3163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -3200,7 +3210,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -3247,7 +3257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -3294,7 +3304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -3341,7 +3351,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -3385,7 +3395,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -3432,7 +3442,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -3479,7 +3489,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -3526,7 +3536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -3573,7 +3583,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>112</v>
       </c>
@@ -3617,7 +3627,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -3664,7 +3674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -3711,7 +3721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -3758,7 +3768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>117</v>
       </c>
@@ -3805,7 +3815,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>120</v>
       </c>
@@ -3852,7 +3862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>121</v>
       </c>
@@ -3899,7 +3909,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>122</v>
       </c>
@@ -3946,7 +3956,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>125</v>
       </c>
@@ -3993,7 +4003,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>126</v>
       </c>
@@ -4040,7 +4050,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>127</v>
       </c>
@@ -4087,7 +4097,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>132</v>
       </c>
@@ -4134,7 +4144,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>133</v>
       </c>
@@ -4181,7 +4191,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>134</v>
       </c>
@@ -4228,7 +4238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>135</v>
       </c>
@@ -4275,7 +4285,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>136</v>
       </c>
@@ -4322,7 +4332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -4369,7 +4379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>138</v>
       </c>
@@ -4416,7 +4426,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>142</v>
       </c>
@@ -4463,7 +4473,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>143</v>
       </c>
@@ -4510,7 +4520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>144</v>
       </c>
@@ -4557,7 +4567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>145</v>
       </c>
@@ -4604,7 +4614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>146</v>
       </c>
@@ -4651,7 +4661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>147</v>
       </c>
@@ -4698,7 +4708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>148</v>
       </c>
@@ -4745,7 +4755,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>149</v>
       </c>
@@ -4792,7 +4802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>150</v>
       </c>
@@ -4839,7 +4849,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>151</v>
       </c>
@@ -4886,7 +4896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -4933,54 +4943,54 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A68" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B68" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="B68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I68">
-        <v>100</v>
-      </c>
-      <c r="J68">
-        <v>100</v>
-      </c>
-      <c r="K68">
-        <v>100</v>
-      </c>
-      <c r="L68">
-        <v>100</v>
-      </c>
-      <c r="M68">
-        <v>100</v>
-      </c>
-      <c r="N68">
-        <v>100</v>
-      </c>
-      <c r="O68">
+      <c r="I68" s="3">
+        <v>100</v>
+      </c>
+      <c r="J68" s="3">
+        <v>100</v>
+      </c>
+      <c r="K68" s="3">
+        <v>100</v>
+      </c>
+      <c r="L68" s="3">
+        <v>100</v>
+      </c>
+      <c r="M68" s="3">
+        <v>100</v>
+      </c>
+      <c r="N68" s="3">
+        <v>100</v>
+      </c>
+      <c r="O68" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>155</v>
       </c>
@@ -5027,7 +5037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>156</v>
       </c>
@@ -5074,7 +5084,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>159</v>
       </c>
@@ -5115,7 +5125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>160</v>
       </c>
@@ -5162,7 +5172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>161</v>
       </c>
@@ -5209,7 +5219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>162</v>
       </c>
@@ -5256,7 +5266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>163</v>
       </c>
@@ -5303,7 +5313,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>164</v>
       </c>
@@ -5341,7 +5351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>165</v>
       </c>
@@ -5388,7 +5398,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>166</v>
       </c>
@@ -5435,7 +5445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>167</v>
       </c>
@@ -5482,7 +5492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>168</v>
       </c>
@@ -5529,7 +5539,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>169</v>
       </c>
@@ -5576,7 +5586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>170</v>
       </c>
@@ -5623,7 +5633,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>171</v>
       </c>
@@ -5670,7 +5680,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>172</v>
       </c>
@@ -5717,7 +5727,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>173</v>
       </c>
@@ -5764,7 +5774,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>177</v>
       </c>
@@ -5802,7 +5812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>178</v>
       </c>
@@ -5849,7 +5859,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>181</v>
       </c>
@@ -5896,7 +5906,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>182</v>
       </c>
@@ -5943,7 +5953,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>183</v>
       </c>
@@ -5990,7 +6000,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>184</v>
       </c>
@@ -6037,7 +6047,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>188</v>
       </c>
@@ -6069,7 +6079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>189</v>
       </c>
@@ -6116,7 +6126,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>190</v>
       </c>
@@ -6163,7 +6173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>191</v>
       </c>
@@ -6210,7 +6220,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>192</v>
       </c>
@@ -6257,7 +6267,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -6304,7 +6314,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>194</v>
       </c>
@@ -6351,7 +6361,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -6398,7 +6408,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>196</v>
       </c>
@@ -6445,7 +6455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>197</v>
       </c>
@@ -6492,7 +6502,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>198</v>
       </c>
@@ -6539,7 +6549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>199</v>
       </c>
@@ -6586,7 +6596,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>200</v>
       </c>
@@ -6618,7 +6628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>201</v>
       </c>
@@ -6665,7 +6675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>202</v>
       </c>
@@ -6712,7 +6722,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>203</v>
       </c>
@@ -6759,7 +6769,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>204</v>
       </c>
@@ -6806,7 +6816,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>207</v>
       </c>
@@ -6853,7 +6863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>208</v>
       </c>
@@ -6900,7 +6910,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>209</v>
       </c>
@@ -6947,7 +6957,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>210</v>
       </c>
@@ -6994,7 +7004,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>211</v>
       </c>
@@ -7041,7 +7051,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>212</v>
       </c>
@@ -7088,7 +7098,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>213</v>
       </c>
@@ -7135,7 +7145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>214</v>
       </c>
@@ -7182,7 +7192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>215</v>
       </c>
@@ -7229,7 +7239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>216</v>
       </c>
@@ -7276,7 +7286,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>220</v>
       </c>
@@ -7323,7 +7333,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>221</v>
       </c>
@@ -7370,7 +7380,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>222</v>
       </c>
@@ -7408,7 +7418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>223</v>
       </c>
@@ -7455,7 +7465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>224</v>
       </c>
@@ -7502,7 +7512,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>225</v>
       </c>
@@ -7549,7 +7559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>226</v>
       </c>
@@ -7596,7 +7606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>227</v>
       </c>
@@ -7643,7 +7653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>228</v>
       </c>
@@ -7690,7 +7700,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>229</v>
       </c>
@@ -7737,7 +7747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>230</v>
       </c>
@@ -7784,7 +7794,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>231</v>
       </c>
@@ -7831,7 +7841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>232</v>
       </c>
@@ -7869,7 +7879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>233</v>
       </c>
@@ -7916,7 +7926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>234</v>
       </c>
@@ -7963,7 +7973,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>235</v>
       </c>
@@ -8010,7 +8020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>236</v>
       </c>
@@ -8057,7 +8067,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>237</v>
       </c>
@@ -8104,7 +8114,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>238</v>
       </c>
@@ -8151,7 +8161,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>239</v>
       </c>
@@ -8198,7 +8208,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>240</v>
       </c>
@@ -8239,7 +8249,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>241</v>
       </c>
@@ -8286,7 +8296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>242</v>
       </c>
@@ -8333,7 +8343,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>243</v>
       </c>
@@ -8380,7 +8390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>244</v>
       </c>
@@ -8427,7 +8437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>245</v>
       </c>
@@ -8468,7 +8478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>246</v>
       </c>
@@ -8515,7 +8525,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>247</v>
       </c>
@@ -8562,7 +8572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>248</v>
       </c>
@@ -8609,7 +8619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>249</v>
       </c>
@@ -8656,7 +8666,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>250</v>
       </c>
@@ -8703,7 +8713,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>252</v>
       </c>
@@ -8750,7 +8760,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>253</v>
       </c>
@@ -8797,7 +8807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>254</v>
       </c>
@@ -8844,7 +8854,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>255</v>
       </c>
@@ -8891,7 +8901,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>256</v>
       </c>
@@ -8932,7 +8942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>257</v>
       </c>
@@ -8979,7 +8989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>258</v>
       </c>
@@ -9026,7 +9036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>259</v>
       </c>
@@ -9073,7 +9083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>260</v>
       </c>
@@ -9120,7 +9130,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>261</v>
       </c>
@@ -9167,7 +9177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>262</v>
       </c>
@@ -9214,7 +9224,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>263</v>
       </c>
@@ -9261,7 +9271,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>266</v>
       </c>
@@ -9308,7 +9318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>267</v>
       </c>
@@ -9355,7 +9365,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>269</v>
       </c>
@@ -9399,7 +9409,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>270</v>
       </c>
@@ -9446,7 +9456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>272</v>
       </c>
@@ -9493,7 +9503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>273</v>
       </c>
@@ -9540,7 +9550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>276</v>
       </c>
@@ -9587,7 +9597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>278</v>
       </c>
@@ -9634,7 +9644,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>279</v>
       </c>
@@ -9681,7 +9691,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>280</v>
       </c>
@@ -9728,7 +9738,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>281</v>
       </c>
@@ -9775,7 +9785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>282</v>
       </c>
@@ -9822,7 +9832,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>283</v>
       </c>
@@ -9869,7 +9879,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>284</v>
       </c>
@@ -9916,7 +9926,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>285</v>
       </c>
@@ -9963,7 +9973,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>286</v>
       </c>
@@ -10004,7 +10014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>287</v>
       </c>
@@ -10051,7 +10061,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>288</v>
       </c>
@@ -10092,7 +10102,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>289</v>
       </c>
@@ -10139,7 +10149,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>290</v>
       </c>
@@ -10186,7 +10196,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>294</v>
       </c>
@@ -10233,7 +10243,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>296</v>
       </c>
@@ -10280,7 +10290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>297</v>
       </c>
@@ -10321,7 +10331,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>298</v>
       </c>
@@ -10368,7 +10378,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>299</v>
       </c>
@@ -10409,7 +10419,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>300</v>
       </c>
@@ -10450,7 +10460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>301</v>
       </c>
@@ -10488,7 +10498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>302</v>
       </c>
@@ -10535,7 +10545,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>303</v>
       </c>
@@ -10582,7 +10592,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>304</v>
       </c>
@@ -10620,7 +10630,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>305</v>
       </c>
@@ -10667,7 +10677,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>306</v>
       </c>
@@ -10714,7 +10724,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>307</v>
       </c>
@@ -10761,7 +10771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>308</v>
       </c>
@@ -10808,7 +10818,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>309</v>
       </c>
@@ -10855,7 +10865,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>314</v>
       </c>
@@ -10902,7 +10912,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>316</v>
       </c>
@@ -10949,7 +10959,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>317</v>
       </c>
@@ -10990,7 +11000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>318</v>
       </c>
@@ -11037,7 +11047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>319</v>
       </c>
@@ -11084,7 +11094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>320</v>
       </c>
@@ -11131,7 +11141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>321</v>
       </c>
@@ -11178,7 +11188,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>322</v>
       </c>
@@ -11225,7 +11235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>323</v>
       </c>
@@ -11269,7 +11279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>325</v>
       </c>
@@ -11316,7 +11326,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>328</v>
       </c>
@@ -11363,7 +11373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>332</v>
       </c>
@@ -11410,7 +11420,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>333</v>
       </c>
@@ -11457,7 +11467,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>334</v>
       </c>
@@ -11504,7 +11514,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>335</v>
       </c>
@@ -11551,7 +11561,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>336</v>
       </c>
@@ -11598,7 +11608,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>337</v>
       </c>
@@ -11645,7 +11655,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>338</v>
       </c>
@@ -11680,7 +11690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>339</v>
       </c>
@@ -11718,7 +11728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>340</v>
       </c>
@@ -11765,7 +11775,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>341</v>
       </c>
@@ -11812,7 +11822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>342</v>
       </c>
@@ -11859,7 +11869,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>343</v>
       </c>
@@ -11906,7 +11916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>344</v>
       </c>
@@ -11953,7 +11963,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>345</v>
       </c>
@@ -11988,7 +11998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>346</v>
       </c>
@@ -12035,7 +12045,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>347</v>
       </c>
@@ -12082,7 +12092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>352</v>
       </c>
@@ -12126,7 +12136,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>353</v>
       </c>
@@ -12173,7 +12183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>356</v>
       </c>
@@ -12220,7 +12230,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>357</v>
       </c>
@@ -12267,7 +12277,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>360</v>
       </c>
@@ -12302,7 +12312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>361</v>
       </c>
@@ -12340,7 +12350,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>362</v>
       </c>
@@ -12387,7 +12397,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>363</v>
       </c>
@@ -12422,7 +12432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>364</v>
       </c>
@@ -12469,7 +12479,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>365</v>
       </c>
@@ -12510,7 +12520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>366</v>
       </c>
@@ -12557,7 +12567,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>367</v>
       </c>
@@ -12604,7 +12614,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>368</v>
       </c>
@@ -12651,7 +12661,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>369</v>
       </c>
@@ -12689,7 +12699,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>370</v>
       </c>
@@ -12736,7 +12746,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>371</v>
       </c>
@@ -12783,7 +12793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>374</v>
       </c>
@@ -12830,7 +12840,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>375</v>
       </c>
@@ -12871,7 +12881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>376</v>
       </c>
@@ -12918,7 +12928,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>377</v>
       </c>
@@ -12965,7 +12975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>378</v>
       </c>
@@ -13012,7 +13022,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>379</v>
       </c>
@@ -13059,7 +13069,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>383</v>
       </c>
@@ -13091,7 +13101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>384</v>
       </c>
@@ -13138,7 +13148,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>385</v>
       </c>
@@ -13185,7 +13195,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>386</v>
       </c>
@@ -13232,7 +13242,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>387</v>
       </c>
@@ -13279,7 +13289,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>388</v>
       </c>
@@ -13326,7 +13336,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>389</v>
       </c>
@@ -13373,7 +13383,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>390</v>
       </c>
@@ -13420,7 +13430,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>391</v>
       </c>
@@ -13467,7 +13477,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>393</v>
       </c>
@@ -13505,7 +13515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>394</v>
       </c>
@@ -13552,7 +13562,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>396</v>
       </c>
@@ -13593,7 +13603,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>397</v>
       </c>
@@ -13640,7 +13650,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>398</v>
       </c>
@@ -13687,7 +13697,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>399</v>
       </c>
@@ -13734,7 +13744,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>400</v>
       </c>
@@ -13769,7 +13779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>401</v>
       </c>
@@ -13816,7 +13826,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>402</v>
       </c>
@@ -13863,7 +13873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>409</v>
       </c>
@@ -13910,7 +13920,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>413</v>
       </c>
@@ -13957,7 +13967,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>418</v>
       </c>
@@ -14004,7 +14014,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>419</v>
       </c>
@@ -14051,7 +14061,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>423</v>
       </c>
@@ -14098,7 +14108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>426</v>
       </c>
@@ -14145,7 +14155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>429</v>
       </c>
@@ -14192,7 +14202,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>430</v>
       </c>
@@ -14239,7 +14249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>431</v>
       </c>
@@ -14286,7 +14296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>432</v>
       </c>
@@ -14333,7 +14343,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>433</v>
       </c>
@@ -14380,7 +14390,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>434</v>
       </c>
@@ -14427,7 +14437,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>437</v>
       </c>
@@ -14474,7 +14484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>438</v>
       </c>
@@ -14521,7 +14531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>439</v>
       </c>
@@ -14568,7 +14578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>444</v>
       </c>
@@ -14615,7 +14625,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>445</v>
       </c>
@@ -14662,7 +14672,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>448</v>
       </c>
@@ -14709,7 +14719,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>449</v>
       </c>
@@ -14756,7 +14766,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>450</v>
       </c>
@@ -14803,7 +14813,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>453</v>
       </c>
@@ -14850,7 +14860,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>454</v>
       </c>
@@ -14894,7 +14904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>457</v>
       </c>
@@ -14941,7 +14951,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>458</v>
       </c>
@@ -14988,7 +14998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>459</v>
       </c>
@@ -15035,7 +15045,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>460</v>
       </c>
@@ -15082,7 +15092,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>461</v>
       </c>
@@ -15127,6 +15137,759 @@
       </c>
       <c r="O290">
         <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCF10E4-39D1-4DCE-808B-C14885FEF690}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2">
+        <v>83</v>
+      </c>
+      <c r="J2" s="2">
+        <v>83</v>
+      </c>
+      <c r="K2" s="2">
+        <v>83</v>
+      </c>
+      <c r="L2" s="2">
+        <v>83</v>
+      </c>
+      <c r="M2" s="2">
+        <v>83</v>
+      </c>
+      <c r="N2" s="2">
+        <v>83</v>
+      </c>
+      <c r="O2" s="2">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>41</v>
+      </c>
+      <c r="O3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>99</v>
+      </c>
+      <c r="N4">
+        <v>98</v>
+      </c>
+      <c r="O4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>94</v>
+      </c>
+      <c r="N5">
+        <v>94</v>
+      </c>
+      <c r="O5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>41</v>
+      </c>
+      <c r="O6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>94</v>
+      </c>
+      <c r="J7">
+        <v>94</v>
+      </c>
+      <c r="K7">
+        <v>21</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <v>15</v>
+      </c>
+      <c r="N7">
+        <v>15</v>
+      </c>
+      <c r="O7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>44</v>
+      </c>
+      <c r="O8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>100</v>
+      </c>
+      <c r="N9">
+        <v>21</v>
+      </c>
+      <c r="O9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>12</v>
+      </c>
+      <c r="O10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="O11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>43</v>
+      </c>
+      <c r="O12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>99</v>
+      </c>
+      <c r="M13">
+        <v>97</v>
+      </c>
+      <c r="N13">
+        <v>45</v>
+      </c>
+      <c r="O13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>43</v>
+      </c>
+      <c r="O14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>99</v>
+      </c>
+      <c r="J15">
+        <v>99</v>
+      </c>
+      <c r="K15">
+        <v>95</v>
+      </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <v>99</v>
+      </c>
+      <c r="J16">
+        <v>99</v>
+      </c>
+      <c r="K16">
+        <v>99</v>
+      </c>
+      <c r="L16">
+        <v>35</v>
+      </c>
+      <c r="M16">
+        <v>17</v>
+      </c>
+      <c r="N16">
+        <v>17</v>
+      </c>
+      <c r="O16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <v>96</v>
+      </c>
+      <c r="L17">
+        <v>36</v>
+      </c>
+      <c r="M17">
+        <v>36</v>
+      </c>
+      <c r="N17">
+        <v>36</v>
+      </c>
+      <c r="O17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>454</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>455</v>
+      </c>
+      <c r="G18" t="s">
+        <v>456</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>98</v>
+      </c>
+      <c r="N18">
+        <v>98</v>
+      </c>
+      <c r="O18">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
